--- a/data/trans_dic/P20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,18; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,32; 12,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,57; 9,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,64; 13,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,24; 9,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>8,59; 11,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,39; 10,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,06; 8,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,2; 8,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>8,9; 11,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,7; 9,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>7,53; 10,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,99; 3,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,84; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,18; 4,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,72; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,02; 8,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,76; 10,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,2; 8,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,47; 6,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,13; 5,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,09; 7,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>4,84; 6,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,43; 5,86</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,63; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,44; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,92; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,08; 8,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,16; 9,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>6,87; 12,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,58; 11,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,3; 8,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,39; 7,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,49; 7,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,21; 8,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,09; 7,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,28; 6,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,14; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,07; 6,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,44; 8,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,59; 10,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,82; 8,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,38; 6,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,19; 6,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,17; 8,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,7; 6,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,42; 6,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,52</t>
+          <t>8,57; 13,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,85</t>
+          <t>6,17; 9,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,02</t>
+          <t>7,61; 10,11</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,54</t>
+          <t>3,0; 5,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,83</t>
+          <t>3,63; 6,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 5,86</t>
+          <t>3,77; 5,5</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,05</t>
+          <t>4,09; 8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,86</t>
+          <t>5,19; 8,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,76</t>
+          <t>5,02; 7,64</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,71</t>
+          <t>4,21; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,99</t>
+          <t>4,8; 6,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,63</t>
+          <t>4,83; 6,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,16</t>
+          <t>5,17; 8,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,46</t>
+          <t>8,37; 12,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,43</t>
+          <t>5,62; 9,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,54</t>
+          <t>8,62; 13,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,28</t>
+          <t>6,27; 9,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,84</t>
+          <t>8,53; 11,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,17</t>
+          <t>6,45; 10,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,0</t>
+          <t>6,22; 8,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,25</t>
+          <t>6,17; 8,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 11,46</t>
+          <t>8,8; 11,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,37</t>
+          <t>6,53; 9,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 10,11</t>
+          <t>7,45; 9,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,52</t>
+          <t>1,92; 3,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,86</t>
+          <t>3,85; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,97</t>
+          <t>3,19; 4,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,26</t>
+          <t>2,85; 5,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 8,73</t>
+          <t>5,99; 8,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,57</t>
+          <t>7,82; 10,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,52</t>
+          <t>6,15; 8,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,41</t>
+          <t>3,87; 6,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,65</t>
+          <t>4,17; 5,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 7,75</t>
+          <t>6,01; 7,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,31</t>
+          <t>4,89; 6,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,5</t>
+          <t>3,69; 5,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,35</t>
+          <t>2,7; 6,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,97</t>
+          <t>1,45; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,13</t>
+          <t>3,02; 7,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,17</t>
+          <t>4,06; 8,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,88</t>
+          <t>5,28; 9,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,58</t>
+          <t>7,05; 12,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,43</t>
+          <t>6,4; 11,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,61</t>
+          <t>5,07; 8,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,16</t>
+          <t>4,33; 7,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,73</t>
+          <t>4,59; 7,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,51</t>
+          <t>5,28; 8,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,64</t>
+          <t>4,98; 7,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,93</t>
+          <t>3,49; 4,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,98</t>
+          <t>5,25; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,65</t>
+          <t>4,15; 5,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,35</t>
+          <t>4,2; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,32</t>
+          <t>6,57; 8,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,52</t>
+          <t>8,57; 10,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 8,74</t>
+          <t>6,87; 8,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,73</t>
+          <t>4,78; 6,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,37</t>
+          <t>5,26; 6,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 8,6</t>
+          <t>7,17; 8,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,95</t>
+          <t>5,73; 6,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,38</t>
+          <t>4,84; 6,34</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha estado ingresada en un hospital en los últimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>100346</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55393</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>55601</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>100463</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>134850</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>82392</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55959</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>168005</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>235196</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>137784</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>111561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>53362; 84049</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81533; 121363</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42403; 70576</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>44380; 67905</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82422; 121819</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>114126; 159048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64176; 103576</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46882; 67602</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>144853; 195241</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>203501; 265407</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>114223; 161749</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94535; 126715</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45033</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94221</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82108</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>94766</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>114038</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>160201</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>143531</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116455</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>159071</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>254422</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>225639</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>211221</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32555; 60012</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>75541; 115445</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66137; 101546</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>65249; 119330</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>95111; 138689</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>137442; 184785</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>122201; 169763</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>86604; 144182</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>136822; 186751</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>223392; 286552</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>198694; 258066</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>166997; 249218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22851</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13621</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25980</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36988</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34840</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43181</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47416</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44263</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>57691</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56802</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73396</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81251</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14861; 34507</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6973; 23164</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16513; 40243</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26273; 52215</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25145; 47085</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32350; 57972</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35124; 62697</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33503; 56000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44491; 73870</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>43158; 73010</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>57887; 91514</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>65049; 99413</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>208188</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>163481</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>187356</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>249341</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>338233</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>273339</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>216677</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>384767</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>546420</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>436820</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>404033</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>114463; 161027</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179262; 242348</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>140185; 193800</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>144881; 219301</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>221883; 285315</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>304630; 377065</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>242627; 307018</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>174680; 249946</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>350217; 422044</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>499610; 591127</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>395920; 482044</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>343633; 450233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>